--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -97,7 +97,7 @@
     <t xml:space="preserve">Submit project</t>
   </si>
   <si>
-    <t xml:space="preserve">Q4 plan</t>
+    <t xml:space="preserve">Q2 plan</t>
   </si>
   <si>
     <t xml:space="preserve">Submit the project</t>
@@ -344,7 +344,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="55.14"/>
   </cols>
